--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Fstl1-Dip2a.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Fstl1-Dip2a.xlsx
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>51.41189066666666</v>
+        <v>66.23067966666667</v>
       </c>
       <c r="H2">
-        <v>154.235672</v>
+        <v>198.692039</v>
       </c>
       <c r="I2">
-        <v>0.07735360534124781</v>
+        <v>0.09632169493308951</v>
       </c>
       <c r="J2">
-        <v>0.07735360534124781</v>
+        <v>0.09632169493308951</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>11.16309866666667</v>
+        <v>12.574589</v>
       </c>
       <c r="N2">
-        <v>33.489296</v>
+        <v>37.723767</v>
       </c>
       <c r="O2">
-        <v>0.343772839329967</v>
+        <v>0.4094038376301123</v>
       </c>
       <c r="P2">
-        <v>0.3437728393299671</v>
+        <v>0.4094038376301123</v>
       </c>
       <c r="Q2">
-        <v>573.9160081518792</v>
+        <v>832.8235759989905</v>
       </c>
       <c r="R2">
-        <v>5165.244073366912</v>
+        <v>7495.412183990914</v>
       </c>
       <c r="S2">
-        <v>0.02659206854057046</v>
+        <v>0.03943447155264379</v>
       </c>
       <c r="T2">
-        <v>0.02659206854057047</v>
+        <v>0.03943447155264379</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>51.41189066666666</v>
+        <v>66.23067966666667</v>
       </c>
       <c r="H3">
-        <v>154.235672</v>
+        <v>198.692039</v>
       </c>
       <c r="I3">
-        <v>0.07735360534124781</v>
+        <v>0.09632169493308951</v>
       </c>
       <c r="J3">
-        <v>0.07735360534124781</v>
+        <v>0.09632169493308951</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>30.396197</v>
       </c>
       <c r="O3">
-        <v>0.3120216963510676</v>
+        <v>0.3298800912740477</v>
       </c>
       <c r="P3">
-        <v>0.3120216963510677</v>
+        <v>0.3298800912740477</v>
       </c>
       <c r="Q3">
-        <v>520.9086522821538</v>
+        <v>671.0535955306316</v>
       </c>
       <c r="R3">
-        <v>4688.177870539384</v>
+        <v>6039.482359775684</v>
       </c>
       <c r="S3">
-        <v>0.02413600315744715</v>
+        <v>0.03177460951619854</v>
       </c>
       <c r="T3">
-        <v>0.02413600315744715</v>
+        <v>0.03177460951619854</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,16 +664,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>51.41189066666666</v>
+        <v>66.23067966666667</v>
       </c>
       <c r="H4">
-        <v>154.235672</v>
+        <v>198.692039</v>
       </c>
       <c r="I4">
-        <v>0.07735360534124781</v>
+        <v>0.09632169493308951</v>
       </c>
       <c r="J4">
-        <v>0.07735360534124781</v>
+        <v>0.09632169493308951</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>4.925418</v>
+        <v>2.838103333333333</v>
       </c>
       <c r="N4">
-        <v>14.776254</v>
+        <v>8.51431</v>
       </c>
       <c r="O4">
-        <v>0.151680548681608</v>
+        <v>0.09240305160331526</v>
       </c>
       <c r="P4">
-        <v>0.1516805486816081</v>
+        <v>0.09240305160331527</v>
       </c>
       <c r="Q4">
-        <v>253.225051703632</v>
+        <v>187.9695127308989</v>
       </c>
       <c r="R4">
-        <v>2279.025465332688</v>
+        <v>1691.72561457809</v>
       </c>
       <c r="S4">
-        <v>0.01173303730066104</v>
+        <v>0.00890041854742106</v>
       </c>
       <c r="T4">
-        <v>0.01173303730066104</v>
+        <v>0.008900418547421062</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,16 +726,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>51.41189066666666</v>
+        <v>66.23067966666667</v>
       </c>
       <c r="H5">
-        <v>154.235672</v>
+        <v>198.692039</v>
       </c>
       <c r="I5">
-        <v>0.07735360534124781</v>
+        <v>0.09632169493308951</v>
       </c>
       <c r="J5">
-        <v>0.07735360534124781</v>
+        <v>0.09632169493308951</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>2.600381333333333</v>
+        <v>2.986316666666667</v>
       </c>
       <c r="N5">
-        <v>7.801143999999999</v>
+        <v>8.95895</v>
       </c>
       <c r="O5">
-        <v>0.08007995817236455</v>
+        <v>0.09722858565891086</v>
       </c>
       <c r="P5">
-        <v>0.08007995817236456</v>
+        <v>0.09722858565891086</v>
       </c>
       <c r="Q5">
-        <v>133.6905208009742</v>
+        <v>197.7857825332278</v>
       </c>
       <c r="R5">
-        <v>1203.214687208768</v>
+        <v>1780.07204279905</v>
       </c>
       <c r="S5">
-        <v>0.00619447348020872</v>
+        <v>0.009365222166613374</v>
       </c>
       <c r="T5">
-        <v>0.006194473480208721</v>
+        <v>0.009365222166613374</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,16 +788,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>51.41189066666666</v>
+        <v>66.23067966666667</v>
       </c>
       <c r="H6">
-        <v>154.235672</v>
+        <v>198.692039</v>
       </c>
       <c r="I6">
-        <v>0.07735360534124781</v>
+        <v>0.09632169493308951</v>
       </c>
       <c r="J6">
-        <v>0.07735360534124781</v>
+        <v>0.09632169493308951</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>3.651347666666667</v>
+        <v>2.183315</v>
       </c>
       <c r="N6">
-        <v>10.954043</v>
+        <v>6.549944999999999</v>
       </c>
       <c r="O6">
-        <v>0.1124449574649927</v>
+        <v>0.07108443383361385</v>
       </c>
       <c r="P6">
-        <v>0.1124449574649927</v>
+        <v>0.07108443383361385</v>
       </c>
       <c r="Q6">
-        <v>187.7226870246551</v>
+        <v>144.6024363764283</v>
       </c>
       <c r="R6">
-        <v>1689.504183221896</v>
+        <v>1301.421927387855</v>
       </c>
       <c r="S6">
-        <v>0.00869802286236044</v>
+        <v>0.006846973150212739</v>
       </c>
       <c r="T6">
-        <v>0.008698022862360441</v>
+        <v>0.006846973150212739</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -856,10 +856,10 @@
         <v>1794.653626</v>
       </c>
       <c r="I7">
-        <v>0.9000701751397912</v>
+        <v>0.8700100917185459</v>
       </c>
       <c r="J7">
-        <v>0.900070175139791</v>
+        <v>0.8700100917185459</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>11.16309866666667</v>
+        <v>12.574589</v>
       </c>
       <c r="N7">
-        <v>33.489296</v>
+        <v>37.723767</v>
       </c>
       <c r="O7">
-        <v>0.343772839329967</v>
+        <v>0.4094038376301123</v>
       </c>
       <c r="P7">
-        <v>0.3437728393299671</v>
+        <v>0.4094038376301123</v>
       </c>
       <c r="Q7">
-        <v>6677.965166509701</v>
+        <v>7522.343914769906</v>
       </c>
       <c r="R7">
-        <v>60101.6864985873</v>
+        <v>67701.09523292915</v>
       </c>
       <c r="S7">
-        <v>0.3094196797040267</v>
+        <v>0.3561854703264987</v>
       </c>
       <c r="T7">
-        <v>0.3094196797040267</v>
+        <v>0.3561854703264987</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -918,10 +918,10 @@
         <v>1794.653626</v>
       </c>
       <c r="I8">
-        <v>0.9000701751397912</v>
+        <v>0.8700100917185459</v>
       </c>
       <c r="J8">
-        <v>0.900070175139791</v>
+        <v>0.8700100917185459</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,10 +936,10 @@
         <v>30.396197</v>
       </c>
       <c r="O8">
-        <v>0.3120216963510676</v>
+        <v>0.3298800912740477</v>
       </c>
       <c r="P8">
-        <v>0.3120216963510677</v>
+        <v>0.3298800912740477</v>
       </c>
       <c r="Q8">
         <v>6061.182795851148</v>
@@ -948,10 +948,10 @@
         <v>54550.64516266032</v>
       </c>
       <c r="S8">
-        <v>0.2808414228821202</v>
+        <v>0.2869990084654565</v>
       </c>
       <c r="T8">
-        <v>0.2808414228821202</v>
+        <v>0.2869990084654565</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -980,10 +980,10 @@
         <v>1794.653626</v>
       </c>
       <c r="I9">
-        <v>0.9000701751397912</v>
+        <v>0.8700100917185459</v>
       </c>
       <c r="J9">
-        <v>0.900070175139791</v>
+        <v>0.8700100917185459</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>4.925418</v>
+        <v>2.838103333333333</v>
       </c>
       <c r="N9">
-        <v>14.776254</v>
+        <v>8.51431</v>
       </c>
       <c r="O9">
-        <v>0.151680548681608</v>
+        <v>0.09240305160331526</v>
       </c>
       <c r="P9">
-        <v>0.1516805486816081</v>
+        <v>0.09240305160331527</v>
       </c>
       <c r="Q9">
-        <v>2946.473091088556</v>
+        <v>1697.804146043118</v>
       </c>
       <c r="R9">
-        <v>26518.257819797</v>
+        <v>15280.23731438806</v>
       </c>
       <c r="S9">
-        <v>0.1365231380171546</v>
+        <v>0.08039158740047384</v>
       </c>
       <c r="T9">
-        <v>0.1365231380171546</v>
+        <v>0.08039158740047385</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1042,10 +1042,10 @@
         <v>1794.653626</v>
       </c>
       <c r="I10">
-        <v>0.9000701751397912</v>
+        <v>0.8700100917185459</v>
       </c>
       <c r="J10">
-        <v>0.900070175139791</v>
+        <v>0.8700100917185459</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>2.600381333333333</v>
+        <v>2.986316666666667</v>
       </c>
       <c r="N10">
-        <v>7.801143999999999</v>
+        <v>8.95895</v>
       </c>
       <c r="O10">
-        <v>0.08007995817236455</v>
+        <v>0.09722858565891086</v>
       </c>
       <c r="P10">
-        <v>0.08007995817236456</v>
+        <v>0.09722858565891086</v>
       </c>
       <c r="Q10">
-        <v>1555.594596283127</v>
+        <v>1786.468011405856</v>
       </c>
       <c r="R10">
-        <v>14000.35136654814</v>
+        <v>16078.2121026527</v>
       </c>
       <c r="S10">
-        <v>0.07207758197738731</v>
+        <v>0.08458985072677354</v>
       </c>
       <c r="T10">
-        <v>0.07207758197738731</v>
+        <v>0.08458985072677354</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1104,10 +1104,10 @@
         <v>1794.653626</v>
       </c>
       <c r="I11">
-        <v>0.9000701751397912</v>
+        <v>0.8700100917185459</v>
       </c>
       <c r="J11">
-        <v>0.900070175139791</v>
+        <v>0.8700100917185459</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>3.651347666666667</v>
+        <v>2.183315</v>
       </c>
       <c r="N11">
-        <v>10.954043</v>
+        <v>6.549944999999999</v>
       </c>
       <c r="O11">
-        <v>0.1124449574649927</v>
+        <v>0.07108443383361385</v>
       </c>
       <c r="P11">
-        <v>0.1124449574649927</v>
+        <v>0.07108443383361385</v>
       </c>
       <c r="Q11">
-        <v>2184.301443256658</v>
+        <v>1306.098060483397</v>
       </c>
       <c r="R11">
-        <v>19658.71298930992</v>
+        <v>11754.88254435057</v>
       </c>
       <c r="S11">
-        <v>0.1012083525591023</v>
+        <v>0.06184417479934329</v>
       </c>
       <c r="T11">
-        <v>0.1012083525591023</v>
+        <v>0.06184417479934329</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1154,22 +1154,22 @@
         <v>20</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G12">
-        <v>0.064536</v>
+        <v>0.417266</v>
       </c>
       <c r="H12">
-        <v>0.193608</v>
+        <v>1.251798</v>
       </c>
       <c r="I12">
-        <v>9.709995507983592E-05</v>
+        <v>0.0006068451744755186</v>
       </c>
       <c r="J12">
-        <v>9.709995507983592E-05</v>
+        <v>0.0006068451744755187</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>11.16309866666667</v>
+        <v>12.574589</v>
       </c>
       <c r="N12">
-        <v>33.489296</v>
+        <v>37.723767</v>
       </c>
       <c r="O12">
-        <v>0.343772839329967</v>
+        <v>0.4094038376301123</v>
       </c>
       <c r="P12">
-        <v>0.3437728393299671</v>
+        <v>0.4094038376301123</v>
       </c>
       <c r="Q12">
-        <v>0.7204217355520001</v>
+        <v>5.246948453674</v>
       </c>
       <c r="R12">
-        <v>6.483795619968</v>
+        <v>47.222536083066</v>
       </c>
       <c r="S12">
-        <v>3.338032725660745E-05</v>
+        <v>0.0002484447432775924</v>
       </c>
       <c r="T12">
-        <v>3.338032725660746E-05</v>
+        <v>0.0002484447432775925</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1216,22 +1216,22 @@
         <v>21</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G13">
-        <v>0.064536</v>
+        <v>0.417266</v>
       </c>
       <c r="H13">
-        <v>0.193608</v>
+        <v>1.251798</v>
       </c>
       <c r="I13">
-        <v>9.709995507983592E-05</v>
+        <v>0.0006068451744755186</v>
       </c>
       <c r="J13">
-        <v>9.709995507983592E-05</v>
+        <v>0.0006068451744755187</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>30.396197</v>
       </c>
       <c r="O13">
-        <v>0.3120216963510676</v>
+        <v>0.3298800912740477</v>
       </c>
       <c r="P13">
-        <v>0.3120216963510677</v>
+        <v>0.3298800912740477</v>
       </c>
       <c r="Q13">
-        <v>0.6538829898640001</v>
+        <v>4.227766512467333</v>
       </c>
       <c r="R13">
-        <v>5.884946908776</v>
+        <v>38.049898612206</v>
       </c>
       <c r="S13">
-        <v>3.029729269962287E-05</v>
+        <v>0.0002001861415451995</v>
       </c>
       <c r="T13">
-        <v>3.029729269962288E-05</v>
+        <v>0.0002001861415451995</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1278,22 +1278,22 @@
         <v>22</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G14">
-        <v>0.064536</v>
+        <v>0.417266</v>
       </c>
       <c r="H14">
-        <v>0.193608</v>
+        <v>1.251798</v>
       </c>
       <c r="I14">
-        <v>9.709995507983592E-05</v>
+        <v>0.0006068451744755186</v>
       </c>
       <c r="J14">
-        <v>9.709995507983592E-05</v>
+        <v>0.0006068451744755187</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>4.925418</v>
+        <v>2.838103333333333</v>
       </c>
       <c r="N14">
-        <v>14.776254</v>
+        <v>8.51431</v>
       </c>
       <c r="O14">
-        <v>0.151680548681608</v>
+        <v>0.09240305160331526</v>
       </c>
       <c r="P14">
-        <v>0.1516805486816081</v>
+        <v>0.09240305160331527</v>
       </c>
       <c r="Q14">
-        <v>0.317866776048</v>
+        <v>1.184244025486667</v>
       </c>
       <c r="R14">
-        <v>2.860800984432</v>
+        <v>10.65819622938</v>
       </c>
       <c r="S14">
-        <v>1.472817446346901E-05</v>
+        <v>5.60743459722842E-05</v>
       </c>
       <c r="T14">
-        <v>1.472817446346901E-05</v>
+        <v>5.607434597228422E-05</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1340,22 +1340,22 @@
         <v>23</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G15">
-        <v>0.064536</v>
+        <v>0.417266</v>
       </c>
       <c r="H15">
-        <v>0.193608</v>
+        <v>1.251798</v>
       </c>
       <c r="I15">
-        <v>9.709995507983592E-05</v>
+        <v>0.0006068451744755186</v>
       </c>
       <c r="J15">
-        <v>9.709995507983592E-05</v>
+        <v>0.0006068451744755187</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>2.600381333333333</v>
+        <v>2.986316666666667</v>
       </c>
       <c r="N15">
-        <v>7.801143999999999</v>
+        <v>8.95895</v>
       </c>
       <c r="O15">
-        <v>0.08007995817236455</v>
+        <v>0.09722858565891086</v>
       </c>
       <c r="P15">
-        <v>0.08007995817236456</v>
+        <v>0.09722858565891086</v>
       </c>
       <c r="Q15">
-        <v>0.167818209728</v>
+        <v>1.246088410233333</v>
       </c>
       <c r="R15">
-        <v>1.510363887552</v>
+        <v>11.2147956921</v>
       </c>
       <c r="S15">
-        <v>7.775760341331736E-06</v>
+        <v>5.900269802818967E-05</v>
       </c>
       <c r="T15">
-        <v>7.775760341331738E-06</v>
+        <v>5.900269802818968E-05</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1402,22 +1402,22 @@
         <v>24</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G16">
-        <v>0.064536</v>
+        <v>0.417266</v>
       </c>
       <c r="H16">
-        <v>0.193608</v>
+        <v>1.251798</v>
       </c>
       <c r="I16">
-        <v>9.709995507983592E-05</v>
+        <v>0.0006068451744755186</v>
       </c>
       <c r="J16">
-        <v>9.709995507983592E-05</v>
+        <v>0.0006068451744755187</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,28 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>3.651347666666667</v>
+        <v>2.183315</v>
       </c>
       <c r="N16">
-        <v>10.954043</v>
+        <v>6.549944999999999</v>
       </c>
       <c r="O16">
-        <v>0.1124449574649927</v>
+        <v>0.07108443383361385</v>
       </c>
       <c r="P16">
-        <v>0.1124449574649927</v>
+        <v>0.07108443383361385</v>
       </c>
       <c r="Q16">
-        <v>0.235643373016</v>
+        <v>0.9110231167899999</v>
       </c>
       <c r="R16">
-        <v>2.120790357144</v>
+        <v>8.199208051109999</v>
       </c>
       <c r="S16">
-        <v>1.091840031880485E-05</v>
+        <v>4.313724565225286E-05</v>
       </c>
       <c r="T16">
-        <v>1.091840031880485E-05</v>
+        <v>4.313724565225286E-05</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1470,16 +1470,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>14.75302666666667</v>
+        <v>22.42891233333333</v>
       </c>
       <c r="H17">
-        <v>44.25908</v>
+        <v>67.286737</v>
       </c>
       <c r="I17">
-        <v>0.02219719577638767</v>
+        <v>0.03261918588674318</v>
       </c>
       <c r="J17">
-        <v>0.02219719577638767</v>
+        <v>0.03261918588674318</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1488,28 +1488,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>11.16309866666667</v>
+        <v>12.574589</v>
       </c>
       <c r="N17">
-        <v>33.489296</v>
+        <v>37.723767</v>
       </c>
       <c r="O17">
-        <v>0.343772839329967</v>
+        <v>0.4094038376301123</v>
       </c>
       <c r="P17">
-        <v>0.3437728393299671</v>
+        <v>0.4094038376301123</v>
       </c>
       <c r="Q17">
-        <v>164.6894923119644</v>
+        <v>282.0343543086977</v>
       </c>
       <c r="R17">
-        <v>1482.20543080768</v>
+        <v>2538.309188778279</v>
       </c>
       <c r="S17">
-        <v>0.007630793017211941</v>
+        <v>0.01335441988240266</v>
       </c>
       <c r="T17">
-        <v>0.007630793017211942</v>
+        <v>0.01335441988240266</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1532,16 +1532,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>14.75302666666667</v>
+        <v>22.42891233333333</v>
       </c>
       <c r="H18">
-        <v>44.25908</v>
+        <v>67.286737</v>
       </c>
       <c r="I18">
-        <v>0.02219719577638767</v>
+        <v>0.03261918588674318</v>
       </c>
       <c r="J18">
-        <v>0.02219719577638767</v>
+        <v>0.03261918588674318</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1556,22 +1556,22 @@
         <v>30.396197</v>
       </c>
       <c r="O18">
-        <v>0.3120216963510676</v>
+        <v>0.3298800912740477</v>
       </c>
       <c r="P18">
-        <v>0.3120216963510677</v>
+        <v>0.3298800912740477</v>
       </c>
       <c r="Q18">
-        <v>149.4786349687511</v>
+        <v>227.2512125932432</v>
       </c>
       <c r="R18">
-        <v>1345.30771471876</v>
+        <v>2045.260913339189</v>
       </c>
       <c r="S18">
-        <v>0.006926006680385235</v>
+        <v>0.01076042001760397</v>
       </c>
       <c r="T18">
-        <v>0.006926006680385236</v>
+        <v>0.01076042001760397</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1594,16 +1594,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>14.75302666666667</v>
+        <v>22.42891233333333</v>
       </c>
       <c r="H19">
-        <v>44.25908</v>
+        <v>67.286737</v>
       </c>
       <c r="I19">
-        <v>0.02219719577638767</v>
+        <v>0.03261918588674318</v>
       </c>
       <c r="J19">
-        <v>0.02219719577638767</v>
+        <v>0.03261918588674318</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1612,28 +1612,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>4.925418</v>
+        <v>2.838103333333333</v>
       </c>
       <c r="N19">
-        <v>14.776254</v>
+        <v>8.51431</v>
       </c>
       <c r="O19">
-        <v>0.151680548681608</v>
+        <v>0.09240305160331526</v>
       </c>
       <c r="P19">
-        <v>0.1516805486816081</v>
+        <v>0.09240305160331527</v>
       </c>
       <c r="Q19">
-        <v>72.66482309847999</v>
+        <v>63.65557085627444</v>
       </c>
       <c r="R19">
-        <v>653.9834078863199</v>
+        <v>572.90013770647</v>
       </c>
       <c r="S19">
-        <v>0.003366882834555555</v>
+        <v>0.003014112316750863</v>
       </c>
       <c r="T19">
-        <v>0.003366882834555556</v>
+        <v>0.003014112316750864</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1656,16 +1656,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>14.75302666666667</v>
+        <v>22.42891233333333</v>
       </c>
       <c r="H20">
-        <v>44.25908</v>
+        <v>67.286737</v>
       </c>
       <c r="I20">
-        <v>0.02219719577638767</v>
+        <v>0.03261918588674318</v>
       </c>
       <c r="J20">
-        <v>0.02219719577638767</v>
+        <v>0.03261918588674318</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1674,28 +1674,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>2.600381333333333</v>
+        <v>2.986316666666667</v>
       </c>
       <c r="N20">
-        <v>7.801143999999999</v>
+        <v>8.95895</v>
       </c>
       <c r="O20">
-        <v>0.08007995817236455</v>
+        <v>0.09722858565891086</v>
       </c>
       <c r="P20">
-        <v>0.08007995817236456</v>
+        <v>0.09722858565891086</v>
       </c>
       <c r="Q20">
-        <v>38.36349515416888</v>
+        <v>66.97983471623888</v>
       </c>
       <c r="R20">
-        <v>345.2714563875199</v>
+        <v>602.81851244615</v>
       </c>
       <c r="S20">
-        <v>0.001777550509316912</v>
+        <v>0.003171517309113146</v>
       </c>
       <c r="T20">
-        <v>0.001777550509316912</v>
+        <v>0.003171517309113146</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1718,16 +1718,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>14.75302666666667</v>
+        <v>22.42891233333333</v>
       </c>
       <c r="H21">
-        <v>44.25908</v>
+        <v>67.286737</v>
       </c>
       <c r="I21">
-        <v>0.02219719577638767</v>
+        <v>0.03261918588674318</v>
       </c>
       <c r="J21">
-        <v>0.02219719577638767</v>
+        <v>0.03261918588674318</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1736,28 +1736,28 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>3.651347666666667</v>
+        <v>2.183315</v>
       </c>
       <c r="N21">
-        <v>10.954043</v>
+        <v>6.549944999999999</v>
       </c>
       <c r="O21">
-        <v>0.1124449574649927</v>
+        <v>0.07108443383361385</v>
       </c>
       <c r="P21">
-        <v>0.1124449574649927</v>
+        <v>0.07108443383361385</v>
       </c>
       <c r="Q21">
-        <v>53.86842949560444</v>
+        <v>48.96938073105166</v>
       </c>
       <c r="R21">
-        <v>484.81586546044</v>
+        <v>440.724426579465</v>
       </c>
       <c r="S21">
-        <v>0.002495962734918027</v>
+        <v>0.002318716360872546</v>
       </c>
       <c r="T21">
-        <v>0.002495962734918027</v>
+        <v>0.002318716360872546</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1774,22 +1774,22 @@
         <v>20</v>
       </c>
       <c r="E22">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F22">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G22">
-        <v>0.1873763333333333</v>
+        <v>0.304044</v>
       </c>
       <c r="H22">
-        <v>0.562129</v>
+        <v>0.9121319999999999</v>
       </c>
       <c r="I22">
-        <v>0.0002819237874936629</v>
+        <v>0.0004421822871459323</v>
       </c>
       <c r="J22">
-        <v>0.0002819237874936629</v>
+        <v>0.0004421822871459324</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1798,28 +1798,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>11.16309866666667</v>
+        <v>12.574589</v>
       </c>
       <c r="N22">
-        <v>33.489296</v>
+        <v>37.723767</v>
       </c>
       <c r="O22">
-        <v>0.343772839329967</v>
+        <v>0.4094038376301123</v>
       </c>
       <c r="P22">
-        <v>0.3437728393299671</v>
+        <v>0.4094038376301123</v>
       </c>
       <c r="Q22">
-        <v>2.091700496798222</v>
+        <v>3.823228337916</v>
       </c>
       <c r="R22">
-        <v>18.825304471184</v>
+        <v>34.409055041244</v>
       </c>
       <c r="S22">
-        <v>9.691774090135475E-05</v>
+        <v>0.000181031125289605</v>
       </c>
       <c r="T22">
-        <v>9.691774090135475E-05</v>
+        <v>0.000181031125289605</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1836,22 +1836,22 @@
         <v>21</v>
       </c>
       <c r="E23">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F23">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G23">
-        <v>0.1873763333333333</v>
+        <v>0.304044</v>
       </c>
       <c r="H23">
-        <v>0.562129</v>
+        <v>0.9121319999999999</v>
       </c>
       <c r="I23">
-        <v>0.0002819237874936629</v>
+        <v>0.0004421822871459323</v>
       </c>
       <c r="J23">
-        <v>0.0002819237874936629</v>
+        <v>0.0004421822871459324</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1866,22 +1866,22 @@
         <v>30.396197</v>
       </c>
       <c r="O23">
-        <v>0.3120216963510676</v>
+        <v>0.3298800912740477</v>
       </c>
       <c r="P23">
-        <v>0.3120216963510677</v>
+        <v>0.3298800912740477</v>
       </c>
       <c r="Q23">
-        <v>1.898509313712556</v>
+        <v>3.080593773556</v>
       </c>
       <c r="R23">
-        <v>17.086583823413</v>
+        <v>27.725343962004</v>
       </c>
       <c r="S23">
-        <v>8.796633841549062E-05</v>
+        <v>0.0001458671332434673</v>
       </c>
       <c r="T23">
-        <v>8.796633841549062E-05</v>
+        <v>0.0001458671332434673</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1898,22 +1898,22 @@
         <v>22</v>
       </c>
       <c r="E24">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F24">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G24">
-        <v>0.1873763333333333</v>
+        <v>0.304044</v>
       </c>
       <c r="H24">
-        <v>0.562129</v>
+        <v>0.9121319999999999</v>
       </c>
       <c r="I24">
-        <v>0.0002819237874936629</v>
+        <v>0.0004421822871459323</v>
       </c>
       <c r="J24">
-        <v>0.0002819237874936629</v>
+        <v>0.0004421822871459324</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1922,28 +1922,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>4.925418</v>
+        <v>2.838103333333333</v>
       </c>
       <c r="N24">
-        <v>14.776254</v>
+        <v>8.51431</v>
       </c>
       <c r="O24">
-        <v>0.151680548681608</v>
+        <v>0.09240305160331526</v>
       </c>
       <c r="P24">
-        <v>0.1516805486816081</v>
+        <v>0.09240305160331527</v>
       </c>
       <c r="Q24">
-        <v>0.9229067649739999</v>
+        <v>0.8629082898799999</v>
       </c>
       <c r="R24">
-        <v>8.306160884765999</v>
+        <v>7.766174608919999</v>
       </c>
       <c r="S24">
-        <v>4.276235477343586E-05</v>
+        <v>4.085899269721755E-05</v>
       </c>
       <c r="T24">
-        <v>4.276235477343586E-05</v>
+        <v>4.085899269721756E-05</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1960,22 +1960,22 @@
         <v>23</v>
       </c>
       <c r="E25">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F25">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G25">
-        <v>0.1873763333333333</v>
+        <v>0.304044</v>
       </c>
       <c r="H25">
-        <v>0.562129</v>
+        <v>0.9121319999999999</v>
       </c>
       <c r="I25">
-        <v>0.0002819237874936629</v>
+        <v>0.0004421822871459323</v>
       </c>
       <c r="J25">
-        <v>0.0002819237874936629</v>
+        <v>0.0004421822871459324</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1984,28 +1984,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>2.600381333333333</v>
+        <v>2.986316666666667</v>
       </c>
       <c r="N25">
-        <v>7.801143999999999</v>
+        <v>8.95895</v>
       </c>
       <c r="O25">
-        <v>0.08007995817236455</v>
+        <v>0.09722858565891086</v>
       </c>
       <c r="P25">
-        <v>0.08007995817236456</v>
+        <v>0.09722858565891086</v>
       </c>
       <c r="Q25">
-        <v>0.4872499195084444</v>
+        <v>0.9079716646</v>
       </c>
       <c r="R25">
-        <v>4.385249275575999</v>
+        <v>8.1717449814</v>
       </c>
       <c r="S25">
-        <v>2.257644511028712E-05</v>
+        <v>4.29927583826214E-05</v>
       </c>
       <c r="T25">
-        <v>2.257644511028712E-05</v>
+        <v>4.29927583826214E-05</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2022,22 +2022,22 @@
         <v>24</v>
       </c>
       <c r="E26">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F26">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G26">
-        <v>0.1873763333333333</v>
+        <v>0.304044</v>
       </c>
       <c r="H26">
-        <v>0.562129</v>
+        <v>0.9121319999999999</v>
       </c>
       <c r="I26">
-        <v>0.0002819237874936629</v>
+        <v>0.0004421822871459323</v>
       </c>
       <c r="J26">
-        <v>0.0002819237874936629</v>
+        <v>0.0004421822871459324</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2046,28 +2046,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>3.651347666666667</v>
+        <v>2.183315</v>
       </c>
       <c r="N26">
-        <v>10.954043</v>
+        <v>6.549944999999999</v>
       </c>
       <c r="O26">
-        <v>0.1124449574649927</v>
+        <v>0.07108443383361385</v>
       </c>
       <c r="P26">
-        <v>0.1124449574649927</v>
+        <v>0.07108443383361385</v>
       </c>
       <c r="Q26">
-        <v>0.6841761375052222</v>
+        <v>0.6638238258599999</v>
       </c>
       <c r="R26">
-        <v>6.157585237547</v>
+        <v>5.974414432739999</v>
       </c>
       <c r="S26">
-        <v>3.170090829309456E-05</v>
+        <v>3.143227753302107E-05</v>
       </c>
       <c r="T26">
-        <v>3.170090829309456E-05</v>
+        <v>3.143227753302107E-05</v>
       </c>
     </row>
   </sheetData>
